--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CE1C42-06AD-E74F-960E-DF0C80AC3C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E1B8B-6D06-8F4F-BFCF-55C295782407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="16940" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="24260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Train" sheetId="1" r:id="rId1"/>
+    <sheet name="Valid" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>电流（A）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,7 +299,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Train!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -321,7 +322,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$123</c:f>
+              <c:f>Train!$E$2:$E$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="122"/>
@@ -386,309 +387,279 @@
                   <c:v>70.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>69.930000000000007</c:v>
+                  <c:v>69.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>69.180000000000007</c:v>
+                  <c:v>69.010000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>69.010000000000005</c:v>
+                  <c:v>67.84</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>67.84</c:v>
+                  <c:v>69.78</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>69.78</c:v>
+                  <c:v>67.23</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>67.23</c:v>
+                  <c:v>67.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>67.069999999999993</c:v>
+                  <c:v>66.319999999999993</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>66.319999999999993</c:v>
+                  <c:v>65.75</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>65.75</c:v>
+                  <c:v>65.33</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>65.63</c:v>
+                  <c:v>65.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>65.33</c:v>
+                  <c:v>65.959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>65.180000000000007</c:v>
+                  <c:v>63.78</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>65.959999999999994</c:v>
+                  <c:v>64.25</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>63.78</c:v>
+                  <c:v>61.01</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>64.25</c:v>
+                  <c:v>60.25</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>61.01</c:v>
+                  <c:v>63.26</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>60.25</c:v>
+                  <c:v>61.45</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>63.26</c:v>
+                  <c:v>65.27</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>61.45</c:v>
+                  <c:v>61.23</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>65.27</c:v>
+                  <c:v>58.47</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>61.23</c:v>
+                  <c:v>59.9</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>58.47</c:v>
+                  <c:v>59.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59.9</c:v>
+                  <c:v>66.66</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>59.25</c:v>
+                  <c:v>67.650000000000006</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>66.66</c:v>
+                  <c:v>59.98</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>67.650000000000006</c:v>
+                  <c:v>60.64</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>59.98</c:v>
+                  <c:v>71.97</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>65.53</c:v>
+                  <c:v>65.61</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>65.02</c:v>
+                  <c:v>63.85</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>60.64</c:v>
+                  <c:v>63.95</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>71.97</c:v>
+                  <c:v>67.19</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>65.61</c:v>
+                  <c:v>74.67</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>63.85</c:v>
+                  <c:v>66.22</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>63.95</c:v>
+                  <c:v>71.63</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>67.19</c:v>
+                  <c:v>67.34</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>74.67</c:v>
+                  <c:v>72.73</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>66.22</c:v>
+                  <c:v>72.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>71.63</c:v>
+                  <c:v>69.11</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>67.34</c:v>
+                  <c:v>69.33</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>72.73</c:v>
+                  <c:v>69.77</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>72.260000000000005</c:v>
+                  <c:v>69.86</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>69.11</c:v>
+                  <c:v>70.819999999999993</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>69.33</c:v>
+                  <c:v>67.56</c:v>
                 </c:pt>
                 <c:pt idx="63">
+                  <c:v>67.73</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>66.62</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.98</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>65.58</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>65.58</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>65.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>64.34</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>64.14</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>63.91</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>62.44</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62.09</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>61.91</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>62.12</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>65.48</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>66.739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>66.83</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>66.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>68.78</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>69.28</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>69.42</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>70.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>71.03</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>73.16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>80.72</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>65.77</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>72.36</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>58.45</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>67.14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>60.34</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>63.67</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>64.48</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>68.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>69.77</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>69.86</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>70.819999999999993</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67.56</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67.73</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>66.62</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>66.98</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>66.010000000000005</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>65.58</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>65.58</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>65.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>64.34</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>64.14</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>63.9</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>63.56</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>62.79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>62.72</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>61.88</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>63.91</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>62.44</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>62.09</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>61.91</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>62.12</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>65.48</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>66.739999999999995</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>66.83</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>66.819999999999993</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>68.78</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>69.28</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>69.42</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>70.489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>71.03</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>71.900000000000006</c:v>
-                </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="99">
+                  <c:v>70.78</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>71.23</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>72.06</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>72.069999999999993</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>72.89</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>72.83</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>72.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>72.47</c:v>
+                </c:pt>
+                <c:pt idx="108">
                   <c:v>73.16</c:v>
                 </c:pt>
-                <c:pt idx="97">
-                  <c:v>67.14</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>60.34</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>63.67</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>64.48</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>63.97</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>67.34</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>68.989999999999995</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>69.77</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>70.78</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>71.23</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>72.06</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>72.069999999999993</c:v>
-                </c:pt>
                 <c:pt idx="109">
-                  <c:v>72.7</c:v>
+                  <c:v>73.209999999999994</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>72.89</c:v>
+                  <c:v>73.25</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>72.83</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>72.849999999999994</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>72.47</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>72.75</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>73.150000000000006</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>72.88</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>72.98</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>73.16</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>73.209999999999994</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>73.25</c:v>
-                </c:pt>
-                <c:pt idx="121">
                   <c:v>73.290000000000006</c:v>
                 </c:pt>
               </c:numCache>
@@ -926,7 +897,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Train!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -949,7 +920,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$123</c:f>
+              <c:f>Train!$F$2:$F$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="122"/>
@@ -1014,309 +985,279 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.06</c:v>
+                  <c:v>-0.13</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.71</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.64</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.76</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.71</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.54</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.38</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.09</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.18</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.31</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.34</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.48</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.47</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.39</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>-0.13</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="84">
                   <c:v>-0.12</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.16</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.22</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.59</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.63</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.62</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>-0.34</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.35</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.15</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.39</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.43</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.63</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.71</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.64</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.66</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.76</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.63</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.71</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.32</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.23</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.62</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.27</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.54</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.23</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.39</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.38</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.09</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-0.18</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.12</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.18</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.23</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-0.22</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-0.26</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-0.31</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-0.34</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-0.39</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.44</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.45</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-0.53</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-0.45</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-0.48</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-0.47</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-0.49</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-0.45</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-0.39</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-0.33</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-0.26</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.22</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-0.13</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-0.12</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-0.27</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-0.15</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-0.15</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-0.59</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-0.59</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-0.59</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-0.63</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-0.62</c:v>
-                </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-0.67</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-0.65</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-0.74</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-0.75</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-0.7</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-0.62</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-0.34</c:v>
-                </c:pt>
-                <c:pt idx="121">
                   <c:v>-0.33</c:v>
                 </c:pt>
               </c:numCache>
@@ -2951,10 +2892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T123"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3444,7 +3385,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>2000</v>
@@ -3455,19 +3396,19 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" s="8">
-        <v>69.930000000000007</v>
-      </c>
-      <c r="F22" s="8">
-        <v>-0.06</v>
+      <c r="E22" s="5">
+        <v>69.180000000000007</v>
+      </c>
+      <c r="F22" s="5">
+        <v>-0.13</v>
       </c>
       <c r="G22" s="9">
-        <v>-1.56</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>2000</v>
@@ -3478,19 +3419,19 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" s="5">
-        <v>69.180000000000007</v>
-      </c>
-      <c r="F23" s="5">
-        <v>-0.13</v>
+      <c r="E23" s="8">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="F23" s="8">
+        <v>-0.12</v>
       </c>
       <c r="G23" s="9">
-        <v>-1.48</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>2000</v>
@@ -3501,19 +3442,19 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" s="8">
-        <v>69.010000000000005</v>
-      </c>
-      <c r="F24" s="8">
-        <v>-0.12</v>
+      <c r="E24" s="5">
+        <v>67.84</v>
+      </c>
+      <c r="F24" s="5">
+        <v>-0.16</v>
       </c>
       <c r="G24" s="9">
-        <v>-1.49</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>2000</v>
@@ -3524,19 +3465,19 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" s="5">
-        <v>67.84</v>
-      </c>
-      <c r="F25" s="5">
-        <v>-0.16</v>
+      <c r="E25" s="8">
+        <v>69.78</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.09</v>
       </c>
       <c r="G25" s="9">
-        <v>-1.32</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>2000</v>
@@ -3547,19 +3488,19 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" s="8">
-        <v>69.78</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0.09</v>
+      <c r="E26" s="5">
+        <v>67.23</v>
+      </c>
+      <c r="F26" s="5">
+        <v>-0.2</v>
       </c>
       <c r="G26" s="9">
-        <v>-2.11</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>2000</v>
@@ -3570,19 +3511,19 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" s="5">
-        <v>67.23</v>
-      </c>
-      <c r="F27" s="5">
-        <v>-0.2</v>
+      <c r="E27" s="8">
+        <v>67.069999999999993</v>
+      </c>
+      <c r="F27" s="8">
+        <v>-0.26</v>
       </c>
       <c r="G27" s="9">
-        <v>-1.29</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>2000</v>
@@ -3594,18 +3535,18 @@
         <v>2</v>
       </c>
       <c r="E28" s="8">
-        <v>67.069999999999993</v>
+        <v>66.319999999999993</v>
       </c>
       <c r="F28" s="8">
-        <v>-0.26</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="G28" s="9">
-        <v>-1.18</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>2000</v>
@@ -3617,18 +3558,18 @@
         <v>2</v>
       </c>
       <c r="E29" s="8">
-        <v>66.319999999999993</v>
+        <v>65.75</v>
       </c>
       <c r="F29" s="8">
-        <v>-0.28000000000000003</v>
+        <v>-0.33</v>
       </c>
       <c r="G29" s="9">
-        <v>-1.25</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>2000</v>
@@ -3640,18 +3581,18 @@
         <v>2</v>
       </c>
       <c r="E30" s="8">
-        <v>65.75</v>
+        <v>65.33</v>
       </c>
       <c r="F30" s="8">
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
       <c r="G30" s="9">
-        <v>-0.88</v>
+        <v>-0.81</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>2000</v>
@@ -3663,18 +3604,18 @@
         <v>2</v>
       </c>
       <c r="E31" s="8">
-        <v>65.63</v>
+        <v>65.180000000000007</v>
       </c>
       <c r="F31" s="8">
-        <v>-0.3</v>
+        <v>-0.35</v>
       </c>
       <c r="G31" s="9">
-        <v>-0.85</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>2000</v>
@@ -3686,18 +3627,18 @@
         <v>2</v>
       </c>
       <c r="E32" s="8">
-        <v>65.33</v>
+        <v>65.959999999999994</v>
       </c>
       <c r="F32" s="8">
-        <v>-0.34</v>
+        <v>-0.15</v>
       </c>
       <c r="G32" s="9">
-        <v>-0.81</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>2000</v>
@@ -3709,18 +3650,18 @@
         <v>2</v>
       </c>
       <c r="E33" s="8">
-        <v>65.180000000000007</v>
+        <v>63.78</v>
       </c>
       <c r="F33" s="8">
-        <v>-0.35</v>
+        <v>-0.39</v>
       </c>
       <c r="G33" s="9">
-        <v>-0.77</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4">
-        <v>33</v>
+      <c r="A34" s="10">
+        <v>35</v>
       </c>
       <c r="B34">
         <v>2000</v>
@@ -3731,22 +3672,22 @@
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" s="8">
-        <v>65.959999999999994</v>
-      </c>
-      <c r="F34" s="8">
-        <v>-0.15</v>
-      </c>
-      <c r="G34" s="9">
-        <v>-1.39</v>
+      <c r="E34" s="11">
+        <v>64.25</v>
+      </c>
+      <c r="F34" s="11">
+        <v>-0.43</v>
+      </c>
+      <c r="G34" s="12">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>2000</v>
+      <c r="A35" s="15">
+        <v>25</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1000</v>
       </c>
       <c r="C35">
         <v>30</v>
@@ -3754,22 +3695,22 @@
       <c r="D35">
         <v>2</v>
       </c>
-      <c r="E35" s="8">
-        <v>63.78</v>
-      </c>
-      <c r="F35" s="8">
-        <v>-0.39</v>
-      </c>
-      <c r="G35" s="9">
-        <v>-0.09</v>
+      <c r="E35" s="5">
+        <v>61.01</v>
+      </c>
+      <c r="F35" s="5">
+        <v>-0.63</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3.26</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="10">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>2000</v>
+      <c r="A36" s="15">
+        <v>25</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1100</v>
       </c>
       <c r="C36">
         <v>30</v>
@@ -3777,14 +3718,14 @@
       <c r="D36">
         <v>2</v>
       </c>
-      <c r="E36" s="11">
-        <v>64.25</v>
-      </c>
-      <c r="F36" s="11">
-        <v>-0.43</v>
-      </c>
-      <c r="G36" s="12">
-        <v>-0.45</v>
+      <c r="E36" s="5">
+        <v>60.25</v>
+      </c>
+      <c r="F36" s="5">
+        <v>-0.71</v>
+      </c>
+      <c r="G36" s="6">
+        <v>2.29</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3792,7 +3733,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="4">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C37">
         <v>30</v>
@@ -3801,13 +3742,13 @@
         <v>2</v>
       </c>
       <c r="E37" s="5">
-        <v>61.01</v>
+        <v>63.26</v>
       </c>
       <c r="F37" s="5">
-        <v>-0.63</v>
+        <v>-0.64</v>
       </c>
       <c r="G37" s="6">
-        <v>3.26</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3815,7 +3756,7 @@
         <v>25</v>
       </c>
       <c r="B38" s="4">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="C38">
         <v>30</v>
@@ -3824,13 +3765,13 @@
         <v>2</v>
       </c>
       <c r="E38" s="5">
-        <v>60.25</v>
+        <v>61.45</v>
       </c>
       <c r="F38" s="5">
-        <v>-0.71</v>
+        <v>-0.66</v>
       </c>
       <c r="G38" s="6">
-        <v>2.29</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3838,7 +3779,7 @@
         <v>25</v>
       </c>
       <c r="B39" s="4">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="C39">
         <v>30</v>
@@ -3847,13 +3788,13 @@
         <v>2</v>
       </c>
       <c r="E39" s="5">
-        <v>63.26</v>
+        <v>65.27</v>
       </c>
       <c r="F39" s="5">
-        <v>-0.64</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="G39" s="6">
-        <v>1.34</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3861,7 +3802,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="4">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="C40">
         <v>30</v>
@@ -3870,13 +3811,13 @@
         <v>2</v>
       </c>
       <c r="E40" s="5">
-        <v>61.45</v>
+        <v>61.23</v>
       </c>
       <c r="F40" s="5">
-        <v>-0.66</v>
+        <v>0.64</v>
       </c>
       <c r="G40" s="6">
-        <v>0.84</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3884,7 +3825,7 @@
         <v>25</v>
       </c>
       <c r="B41" s="4">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="C41">
         <v>30</v>
@@ -3893,13 +3834,13 @@
         <v>2</v>
       </c>
       <c r="E41" s="5">
-        <v>65.27</v>
+        <v>58.47</v>
       </c>
       <c r="F41" s="5">
-        <v>-0.57999999999999996</v>
+        <v>-0.76</v>
       </c>
       <c r="G41" s="6">
-        <v>0.54</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3907,7 +3848,7 @@
         <v>25</v>
       </c>
       <c r="B42" s="4">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="C42">
         <v>30</v>
@@ -3916,13 +3857,13 @@
         <v>2</v>
       </c>
       <c r="E42" s="5">
-        <v>61.23</v>
+        <v>59.9</v>
       </c>
       <c r="F42" s="5">
-        <v>0.64</v>
+        <v>-0.63</v>
       </c>
       <c r="G42" s="6">
-        <v>0.03</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3930,7 +3871,7 @@
         <v>25</v>
       </c>
       <c r="B43" s="4">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="C43">
         <v>30</v>
@@ -3939,13 +3880,13 @@
         <v>2</v>
       </c>
       <c r="E43" s="5">
-        <v>58.47</v>
+        <v>59.25</v>
       </c>
       <c r="F43" s="5">
-        <v>-0.76</v>
+        <v>-0.71</v>
       </c>
       <c r="G43" s="6">
-        <v>-0.09</v>
+        <v>-1.1399999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3953,7 +3894,7 @@
         <v>25</v>
       </c>
       <c r="B44" s="4">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="C44">
         <v>30</v>
@@ -3962,13 +3903,13 @@
         <v>2</v>
       </c>
       <c r="E44" s="5">
-        <v>59.9</v>
+        <v>66.66</v>
       </c>
       <c r="F44" s="5">
-        <v>-0.63</v>
+        <v>-0.32</v>
       </c>
       <c r="G44" s="6">
-        <v>-0.85</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3976,7 +3917,7 @@
         <v>25</v>
       </c>
       <c r="B45" s="4">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="C45">
         <v>30</v>
@@ -3985,13 +3926,13 @@
         <v>2</v>
       </c>
       <c r="E45" s="5">
-        <v>59.25</v>
+        <v>67.650000000000006</v>
       </c>
       <c r="F45" s="5">
-        <v>-0.71</v>
+        <v>-0.23</v>
       </c>
       <c r="G45" s="6">
-        <v>-1.1399999999999999</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3999,7 +3940,7 @@
         <v>25</v>
       </c>
       <c r="B46" s="4">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="C46">
         <v>30</v>
@@ -4008,13 +3949,13 @@
         <v>2</v>
       </c>
       <c r="E46" s="5">
-        <v>66.66</v>
+        <v>59.98</v>
       </c>
       <c r="F46" s="5">
-        <v>-0.32</v>
+        <v>-0.62</v>
       </c>
       <c r="G46" s="6">
-        <v>-0.7</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4022,7 +3963,7 @@
         <v>25</v>
       </c>
       <c r="B47" s="4">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="C47">
         <v>30</v>
@@ -4031,13 +3972,13 @@
         <v>2</v>
       </c>
       <c r="E47" s="5">
-        <v>67.650000000000006</v>
+        <v>60.64</v>
       </c>
       <c r="F47" s="5">
-        <v>-0.23</v>
+        <v>-0.54</v>
       </c>
       <c r="G47" s="6">
-        <v>-1.43</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4045,7 +3986,7 @@
         <v>25</v>
       </c>
       <c r="B48" s="4">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="C48">
         <v>30</v>
@@ -4054,13 +3995,13 @@
         <v>2</v>
       </c>
       <c r="E48" s="5">
-        <v>59.98</v>
+        <v>71.97</v>
       </c>
       <c r="F48" s="5">
-        <v>-0.62</v>
+        <v>0.15</v>
       </c>
       <c r="G48" s="6">
-        <v>-1.73</v>
+        <v>-2.1800000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4068,7 +4009,7 @@
         <v>25</v>
       </c>
       <c r="B49" s="4">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="C49">
         <v>30</v>
@@ -4077,13 +4018,13 @@
         <v>2</v>
       </c>
       <c r="E49" s="5">
-        <v>65.53</v>
+        <v>65.61</v>
       </c>
       <c r="F49" s="5">
-        <v>-0.28000000000000003</v>
+        <v>-0.23</v>
       </c>
       <c r="G49" s="6">
-        <v>-1.99</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4091,7 +4032,7 @@
         <v>25</v>
       </c>
       <c r="B50" s="4">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="C50">
         <v>30</v>
@@ -4100,13 +4041,13 @@
         <v>2</v>
       </c>
       <c r="E50" s="5">
-        <v>65.02</v>
+        <v>63.85</v>
       </c>
       <c r="F50" s="5">
-        <v>-0.27</v>
+        <v>-0.39</v>
       </c>
       <c r="G50" s="6">
-        <v>-2.3199999999999998</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4114,7 +4055,7 @@
         <v>25</v>
       </c>
       <c r="B51" s="4">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="C51">
         <v>30</v>
@@ -4123,13 +4064,13 @@
         <v>2</v>
       </c>
       <c r="E51" s="5">
-        <v>60.64</v>
+        <v>63.95</v>
       </c>
       <c r="F51" s="5">
-        <v>-0.54</v>
+        <v>-0.38</v>
       </c>
       <c r="G51" s="6">
-        <v>-2.11</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4137,7 +4078,7 @@
         <v>25</v>
       </c>
       <c r="B52" s="4">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="C52">
         <v>30</v>
@@ -4146,13 +4087,13 @@
         <v>2</v>
       </c>
       <c r="E52" s="5">
-        <v>71.97</v>
+        <v>67.19</v>
       </c>
       <c r="F52" s="5">
-        <v>0.15</v>
+        <v>-0.09</v>
       </c>
       <c r="G52" s="6">
-        <v>-2.1800000000000002</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4160,7 +4101,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="4">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="C53">
         <v>30</v>
@@ -4169,13 +4110,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="5">
-        <v>65.61</v>
+        <v>74.67</v>
       </c>
       <c r="F53" s="5">
-        <v>-0.23</v>
+        <v>0.38</v>
       </c>
       <c r="G53" s="6">
-        <v>2.46</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4183,7 +4124,7 @@
         <v>25</v>
       </c>
       <c r="B54" s="4">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="C54">
         <v>30</v>
@@ -4192,13 +4133,13 @@
         <v>2</v>
       </c>
       <c r="E54" s="5">
-        <v>63.85</v>
+        <v>66.22</v>
       </c>
       <c r="F54" s="5">
-        <v>-0.39</v>
+        <v>-0.18</v>
       </c>
       <c r="G54" s="6">
-        <v>-2.46</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4206,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="B55" s="4">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="C55">
         <v>30</v>
@@ -4215,13 +4156,13 @@
         <v>2</v>
       </c>
       <c r="E55" s="5">
-        <v>63.95</v>
+        <v>71.63</v>
       </c>
       <c r="F55" s="5">
-        <v>-0.38</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G55" s="6">
-        <v>-2.62</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4229,7 +4170,7 @@
         <v>25</v>
       </c>
       <c r="B56" s="4">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="C56">
         <v>30</v>
@@ -4238,13 +4179,13 @@
         <v>2</v>
       </c>
       <c r="E56" s="5">
-        <v>67.19</v>
+        <v>67.34</v>
       </c>
       <c r="F56" s="5">
-        <v>-0.09</v>
+        <v>-0.12</v>
       </c>
       <c r="G56" s="6">
-        <v>-2.9</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4252,7 +4193,7 @@
         <v>25</v>
       </c>
       <c r="B57" s="4">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="C57">
         <v>30</v>
@@ -4261,13 +4202,13 @@
         <v>2</v>
       </c>
       <c r="E57" s="5">
-        <v>74.67</v>
+        <v>72.73</v>
       </c>
       <c r="F57" s="5">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="G57" s="6">
-        <v>-2.62</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4275,7 +4216,7 @@
         <v>25</v>
       </c>
       <c r="B58" s="4">
-        <v>3100</v>
+        <v>3500</v>
       </c>
       <c r="C58">
         <v>30</v>
@@ -4284,13 +4225,13 @@
         <v>2</v>
       </c>
       <c r="E58" s="5">
-        <v>66.22</v>
+        <v>72.260000000000005</v>
       </c>
       <c r="F58" s="5">
-        <v>-0.18</v>
+        <v>0.3</v>
       </c>
       <c r="G58" s="6">
-        <v>-2.9</v>
+        <v>-3.05</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4298,7 +4239,7 @@
         <v>25</v>
       </c>
       <c r="B59" s="4">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="C59">
         <v>30</v>
@@ -4307,13 +4248,13 @@
         <v>2</v>
       </c>
       <c r="E59" s="5">
-        <v>71.63</v>
+        <v>69.11</v>
       </c>
       <c r="F59" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.04</v>
       </c>
       <c r="G59" s="6">
-        <v>-2.88</v>
+        <v>-3.44</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4321,7 +4262,7 @@
         <v>25</v>
       </c>
       <c r="B60" s="4">
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="C60">
         <v>30</v>
@@ -4330,13 +4271,13 @@
         <v>2</v>
       </c>
       <c r="E60" s="5">
-        <v>67.34</v>
+        <v>69.33</v>
       </c>
       <c r="F60" s="5">
-        <v>-0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G60" s="6">
-        <v>-3</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4344,7 +4285,7 @@
         <v>25</v>
       </c>
       <c r="B61" s="4">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="C61">
         <v>30</v>
@@ -4353,13 +4294,13 @@
         <v>2</v>
       </c>
       <c r="E61" s="5">
-        <v>72.73</v>
+        <v>69.77</v>
       </c>
       <c r="F61" s="5">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G61" s="6">
-        <v>-3.33</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4367,7 +4308,7 @@
         <v>25</v>
       </c>
       <c r="B62" s="4">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="C62">
         <v>30</v>
@@ -4376,21 +4317,21 @@
         <v>2</v>
       </c>
       <c r="E62" s="5">
-        <v>72.260000000000005</v>
+        <v>69.86</v>
       </c>
       <c r="F62" s="5">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="G62" s="6">
-        <v>-3.05</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="15">
         <v>25</v>
       </c>
-      <c r="B63" s="4">
-        <v>3600</v>
+      <c r="B63" s="10">
+        <v>4000</v>
       </c>
       <c r="C63">
         <v>30</v>
@@ -4398,106 +4339,106 @@
       <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" s="5">
-        <v>69.11</v>
-      </c>
-      <c r="F63" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="G63" s="6">
-        <v>-3.44</v>
+      <c r="E63" s="13">
+        <v>70.819999999999993</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="G63" s="14">
+        <v>-3.28</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="15">
         <v>25</v>
       </c>
-      <c r="B64" s="4">
-        <v>3700</v>
+      <c r="B64" s="15">
+        <v>2000</v>
       </c>
       <c r="C64">
-        <v>30</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
       </c>
       <c r="E64" s="5">
-        <v>69.33</v>
+        <v>67.56</v>
       </c>
       <c r="F64" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.2</v>
       </c>
       <c r="G64" s="6">
-        <v>-3.4</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="15">
         <v>25</v>
       </c>
-      <c r="B65" s="4">
-        <v>3800</v>
+      <c r="B65" s="15">
+        <v>2000</v>
       </c>
       <c r="C65">
-        <v>30</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="D65" s="4">
+        <v>1.5</v>
       </c>
       <c r="E65" s="5">
-        <v>69.77</v>
+        <v>67.73</v>
       </c>
       <c r="F65" s="5">
-        <v>0.11</v>
+        <v>-0.18</v>
       </c>
       <c r="G65" s="6">
-        <v>-3.32</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="15">
         <v>25</v>
       </c>
-      <c r="B66" s="4">
-        <v>3900</v>
+      <c r="B66" s="15">
+        <v>2000</v>
       </c>
       <c r="C66">
-        <v>30</v>
-      </c>
-      <c r="D66">
+        <v>25</v>
+      </c>
+      <c r="D66" s="4">
         <v>2</v>
       </c>
       <c r="E66" s="5">
-        <v>69.86</v>
+        <v>66.62</v>
       </c>
       <c r="F66" s="5">
-        <v>0.13</v>
+        <v>-0.25</v>
       </c>
       <c r="G66" s="6">
-        <v>-3.37</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="15">
         <v>25</v>
       </c>
-      <c r="B67" s="10">
-        <v>4000</v>
+      <c r="B67" s="15">
+        <v>2000</v>
       </c>
       <c r="C67">
-        <v>30</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67" s="13">
-        <v>70.819999999999993</v>
-      </c>
-      <c r="F67" s="13">
-        <v>0.17</v>
-      </c>
-      <c r="G67" s="14">
-        <v>-3.28</v>
+        <v>25</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E67" s="5">
+        <v>66.98</v>
+      </c>
+      <c r="F67" s="5">
+        <v>-0.23</v>
+      </c>
+      <c r="G67" s="6">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4511,16 +4452,16 @@
         <v>25</v>
       </c>
       <c r="D68" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" s="5">
-        <v>67.56</v>
+        <v>66.010000000000005</v>
       </c>
       <c r="F68" s="5">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="G68" s="6">
-        <v>-1.32</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4534,16 +4475,16 @@
         <v>25</v>
       </c>
       <c r="D69" s="4">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E69" s="5">
-        <v>67.73</v>
+        <v>65.58</v>
       </c>
       <c r="F69" s="5">
-        <v>-0.18</v>
+        <v>-0.26</v>
       </c>
       <c r="G69" s="6">
-        <v>-1.4</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4557,16 +4498,16 @@
         <v>25</v>
       </c>
       <c r="D70" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70" s="5">
-        <v>66.62</v>
+        <v>65.58</v>
       </c>
       <c r="F70" s="5">
-        <v>-0.25</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="G70" s="6">
-        <v>-1.74</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4580,16 +4521,16 @@
         <v>25</v>
       </c>
       <c r="D71" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E71" s="5">
-        <v>66.98</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="F71" s="5">
-        <v>-0.23</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="G71" s="6">
-        <v>-1.7</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4603,16 +4544,16 @@
         <v>25</v>
       </c>
       <c r="D72" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E72" s="5">
-        <v>66.010000000000005</v>
+        <v>64.34</v>
       </c>
       <c r="F72" s="5">
-        <v>-0.22</v>
+        <v>-0.31</v>
       </c>
       <c r="G72" s="6">
-        <v>-1.81</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4626,16 +4567,16 @@
         <v>25</v>
       </c>
       <c r="D73" s="4">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="E73" s="5">
-        <v>65.58</v>
+        <v>64.14</v>
       </c>
       <c r="F73" s="5">
-        <v>-0.26</v>
+        <v>-0.34</v>
       </c>
       <c r="G73" s="6">
-        <v>-1.84</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4649,16 +4590,16 @@
         <v>25</v>
       </c>
       <c r="D74" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E74" s="5">
-        <v>65.58</v>
+        <v>63.9</v>
       </c>
       <c r="F74" s="5">
-        <v>-0.28000000000000003</v>
+        <v>-0.39</v>
       </c>
       <c r="G74" s="6">
-        <v>-1.86</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4672,16 +4613,16 @@
         <v>25</v>
       </c>
       <c r="D75" s="4">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="E75" s="5">
-        <v>65.400000000000006</v>
+        <v>63.91</v>
       </c>
       <c r="F75" s="5">
-        <v>-0.28999999999999998</v>
+        <v>-0.45</v>
       </c>
       <c r="G75" s="6">
-        <v>-1.89</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4695,16 +4636,16 @@
         <v>25</v>
       </c>
       <c r="D76" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E76" s="5">
-        <v>64.34</v>
+        <v>62.44</v>
       </c>
       <c r="F76" s="5">
-        <v>-0.31</v>
+        <v>-0.48</v>
       </c>
       <c r="G76" s="6">
-        <v>-2.09</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4718,16 +4659,16 @@
         <v>25</v>
       </c>
       <c r="D77" s="4">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="E77" s="5">
-        <v>64.14</v>
+        <v>62.09</v>
       </c>
       <c r="F77" s="5">
-        <v>-0.34</v>
+        <v>-0.47</v>
       </c>
       <c r="G77" s="6">
-        <v>-2</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4741,16 +4682,16 @@
         <v>25</v>
       </c>
       <c r="D78" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E78" s="5">
-        <v>63.9</v>
+        <v>61.91</v>
       </c>
       <c r="F78" s="5">
-        <v>-0.39</v>
+        <v>-0.49</v>
       </c>
       <c r="G78" s="6">
-        <v>-1.77</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4764,16 +4705,16 @@
         <v>25</v>
       </c>
       <c r="D79" s="4">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="E79" s="5">
-        <v>63.56</v>
+        <v>62.12</v>
       </c>
       <c r="F79" s="5">
-        <v>-0.4</v>
+        <v>-0.45</v>
       </c>
       <c r="G79" s="6">
-        <v>-1.74</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4787,19 +4728,19 @@
         <v>25</v>
       </c>
       <c r="D80" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E80" s="5">
-        <v>62.79</v>
+        <v>65.48</v>
       </c>
       <c r="F80" s="5">
-        <v>-0.44</v>
+        <v>-0.39</v>
       </c>
       <c r="G80" s="6">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="15">
         <v>25</v>
       </c>
@@ -4810,19 +4751,19 @@
         <v>25</v>
       </c>
       <c r="D81" s="4">
-        <v>7.5</v>
+        <v>11.5</v>
       </c>
       <c r="E81" s="5">
-        <v>62.72</v>
+        <v>66.739999999999995</v>
       </c>
       <c r="F81" s="5">
-        <v>-0.45</v>
+        <v>-0.33</v>
       </c>
       <c r="G81" s="6">
-        <v>-1.77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+        <v>-1.62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="15">
         <v>25</v>
       </c>
@@ -4833,19 +4774,19 @@
         <v>25</v>
       </c>
       <c r="D82" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E82" s="5">
-        <v>61.88</v>
+        <v>66.83</v>
       </c>
       <c r="F82" s="5">
-        <v>-0.53</v>
+        <v>-0.26</v>
       </c>
       <c r="G82" s="6">
-        <v>-1.78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
+        <v>-1.91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="15">
         <v>25</v>
       </c>
@@ -4856,19 +4797,19 @@
         <v>25</v>
       </c>
       <c r="D83" s="4">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="E83" s="5">
-        <v>63.91</v>
+        <v>66.819999999999993</v>
       </c>
       <c r="F83" s="5">
-        <v>-0.45</v>
+        <v>-0.22</v>
       </c>
       <c r="G83" s="6">
-        <v>-1.66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
+        <v>-2.04</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="15">
         <v>25</v>
       </c>
@@ -4879,19 +4820,19 @@
         <v>25</v>
       </c>
       <c r="D84" s="4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E84" s="5">
-        <v>62.44</v>
+        <v>68.78</v>
       </c>
       <c r="F84" s="5">
-        <v>-0.48</v>
+        <v>-0.05</v>
       </c>
       <c r="G84" s="6">
-        <v>-1.68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="15">
         <v>25</v>
       </c>
@@ -4902,19 +4843,19 @@
         <v>25</v>
       </c>
       <c r="D85" s="4">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="E85" s="5">
-        <v>62.09</v>
+        <v>69.28</v>
       </c>
       <c r="F85" s="5">
-        <v>-0.47</v>
+        <v>-0.13</v>
       </c>
       <c r="G85" s="6">
-        <v>-1.66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20">
+        <v>-2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="15">
         <v>25</v>
       </c>
@@ -4925,655 +4866,571 @@
         <v>25</v>
       </c>
       <c r="D86" s="4">
+        <v>14</v>
+      </c>
+      <c r="E86" s="5">
+        <v>69.42</v>
+      </c>
+      <c r="F86" s="5">
+        <v>-0.12</v>
+      </c>
+      <c r="G86" s="6">
+        <v>-2.02</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="15">
+        <v>25</v>
+      </c>
+      <c r="B87" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C87">
+        <v>25</v>
+      </c>
+      <c r="D87" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="E87" s="5">
+        <v>70.489999999999995</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" s="6">
+        <v>-2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="15">
+        <v>25</v>
+      </c>
+      <c r="B88" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C88">
+        <v>25</v>
+      </c>
+      <c r="D88" s="4">
+        <v>15</v>
+      </c>
+      <c r="E88" s="5">
+        <v>71.03</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="G88" s="6">
+        <v>-2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="15">
+        <v>25</v>
+      </c>
+      <c r="B89" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C89">
+        <v>25</v>
+      </c>
+      <c r="D89" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="E89" s="5">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="G89" s="6">
+        <v>-2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="15">
+        <v>25</v>
+      </c>
+      <c r="B90" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C90">
+        <v>25</v>
+      </c>
+      <c r="D90" s="10">
+        <v>16</v>
+      </c>
+      <c r="E90" s="13">
+        <v>73.16</v>
+      </c>
+      <c r="F90" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="G90" s="14">
+        <v>-2.21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="15">
+        <v>25</v>
+      </c>
+      <c r="B91" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C91" s="4">
         <v>10</v>
       </c>
-      <c r="E86" s="5">
-        <v>61.91</v>
-      </c>
-      <c r="F86" s="5">
+      <c r="D91" s="15">
+        <v>2</v>
+      </c>
+      <c r="E91" s="5">
+        <v>80.72</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="G91" s="6">
+        <v>-3.97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="15">
+        <v>25</v>
+      </c>
+      <c r="B92" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C92" s="4">
+        <v>15</v>
+      </c>
+      <c r="D92" s="15">
+        <v>2</v>
+      </c>
+      <c r="E92" s="5">
+        <v>65.77</v>
+      </c>
+      <c r="F92" s="5">
+        <v>-0.22</v>
+      </c>
+      <c r="G92" s="6">
+        <v>-2.65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="15">
+        <v>25</v>
+      </c>
+      <c r="B93" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C93" s="4">
+        <v>20</v>
+      </c>
+      <c r="D93" s="15">
+        <v>2</v>
+      </c>
+      <c r="E93" s="5">
+        <v>72.36</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G93" s="6">
+        <v>-2.14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="15">
+        <v>25</v>
+      </c>
+      <c r="B94" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C94" s="4">
+        <v>25</v>
+      </c>
+      <c r="D94" s="15">
+        <v>2</v>
+      </c>
+      <c r="E94" s="5">
+        <v>58.45</v>
+      </c>
+      <c r="F94" s="5">
+        <v>-0.66</v>
+      </c>
+      <c r="G94" s="6">
+        <v>-2.06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="15">
+        <v>25</v>
+      </c>
+      <c r="B95" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C95" s="4">
+        <v>30</v>
+      </c>
+      <c r="D95" s="15">
+        <v>2</v>
+      </c>
+      <c r="E95" s="5">
+        <v>67.14</v>
+      </c>
+      <c r="F95" s="5">
+        <v>-0.27</v>
+      </c>
+      <c r="G95" s="6">
+        <v>-1.38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="15">
+        <v>25</v>
+      </c>
+      <c r="B96" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C96" s="4">
+        <v>35</v>
+      </c>
+      <c r="D96" s="15">
+        <v>2</v>
+      </c>
+      <c r="E96" s="5">
+        <v>60.34</v>
+      </c>
+      <c r="F96" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="G96" s="6">
+        <v>-1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="15">
+        <v>25</v>
+      </c>
+      <c r="B97" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C97" s="4">
+        <v>40</v>
+      </c>
+      <c r="D97" s="15">
+        <v>2</v>
+      </c>
+      <c r="E97" s="5">
+        <v>63.67</v>
+      </c>
+      <c r="F97" s="5">
+        <v>-0.15</v>
+      </c>
+      <c r="G97" s="6">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="15">
+        <v>25</v>
+      </c>
+      <c r="B98" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C98" s="4">
+        <v>45</v>
+      </c>
+      <c r="D98" s="15">
+        <v>2</v>
+      </c>
+      <c r="E98" s="5">
+        <v>64.48</v>
+      </c>
+      <c r="F98" s="5">
+        <v>-0.15</v>
+      </c>
+      <c r="G98" s="6">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="15">
+        <v>25</v>
+      </c>
+      <c r="B99" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C99" s="4">
+        <v>60</v>
+      </c>
+      <c r="D99" s="15">
+        <v>2</v>
+      </c>
+      <c r="E99" s="5">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="F99" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="G99" s="6">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="15">
+        <v>25</v>
+      </c>
+      <c r="B100" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C100" s="4">
+        <v>65</v>
+      </c>
+      <c r="D100" s="15">
+        <v>2</v>
+      </c>
+      <c r="E100" s="5">
+        <v>69.77</v>
+      </c>
+      <c r="F100" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="G100" s="6">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="15">
+        <v>25</v>
+      </c>
+      <c r="B101" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C101" s="4">
+        <v>70</v>
+      </c>
+      <c r="D101" s="15">
+        <v>2</v>
+      </c>
+      <c r="E101" s="5">
+        <v>70.78</v>
+      </c>
+      <c r="F101" s="5">
+        <v>-0.59</v>
+      </c>
+      <c r="G101" s="6">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="15">
+        <v>25</v>
+      </c>
+      <c r="B102" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C102" s="4">
+        <v>75</v>
+      </c>
+      <c r="D102" s="15">
+        <v>2</v>
+      </c>
+      <c r="E102" s="5">
+        <v>71.23</v>
+      </c>
+      <c r="F102" s="5">
+        <v>-0.59</v>
+      </c>
+      <c r="G102" s="6">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="15">
+        <v>25</v>
+      </c>
+      <c r="B103" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C103" s="4">
+        <v>80</v>
+      </c>
+      <c r="D103" s="15">
+        <v>2</v>
+      </c>
+      <c r="E103" s="5">
+        <v>72.06</v>
+      </c>
+      <c r="F103" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="G103" s="6">
         <v>-0.49</v>
       </c>
-      <c r="G86" s="6">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="15">
+        <v>25</v>
+      </c>
+      <c r="B104" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C104" s="4">
+        <v>85</v>
+      </c>
+      <c r="D104" s="15">
+        <v>2</v>
+      </c>
+      <c r="E104" s="5">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="F104" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="G104" s="6">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="15">
+        <v>25</v>
+      </c>
+      <c r="B105" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C105" s="4">
+        <v>90</v>
+      </c>
+      <c r="D105" s="15">
+        <v>2</v>
+      </c>
+      <c r="E105" s="5">
+        <v>72.7</v>
+      </c>
+      <c r="F105" s="5">
+        <v>-0.63</v>
+      </c>
+      <c r="G105" s="6">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="15">
+        <v>25</v>
+      </c>
+      <c r="B106" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C106" s="4">
+        <v>95</v>
+      </c>
+      <c r="D106" s="15">
+        <v>2</v>
+      </c>
+      <c r="E106" s="5">
+        <v>72.89</v>
+      </c>
+      <c r="F106" s="5">
+        <v>-0.62</v>
+      </c>
+      <c r="G106" s="6">
+        <v>-0.96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="15">
+        <v>25</v>
+      </c>
+      <c r="B107" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C107" s="4">
+        <v>100</v>
+      </c>
+      <c r="D107" s="15">
+        <v>2</v>
+      </c>
+      <c r="E107" s="5">
+        <v>72.83</v>
+      </c>
+      <c r="F107" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="G107" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="15">
+        <v>25</v>
+      </c>
+      <c r="B108" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C108" s="4">
+        <v>105</v>
+      </c>
+      <c r="D108" s="15">
+        <v>2</v>
+      </c>
+      <c r="E108" s="5">
+        <v>72.849999999999994</v>
+      </c>
+      <c r="F108" s="5">
+        <v>-0.67</v>
+      </c>
+      <c r="G108" s="6">
+        <v>-1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="15">
+        <v>25</v>
+      </c>
+      <c r="B109" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C109" s="4">
+        <v>110</v>
+      </c>
+      <c r="D109" s="15">
+        <v>2</v>
+      </c>
+      <c r="E109" s="5">
+        <v>72.47</v>
+      </c>
+      <c r="F109" s="5">
+        <v>-0.65</v>
+      </c>
+      <c r="G109" s="6">
         <v>-1.88</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
-      <c r="A87" s="15">
-        <v>25</v>
-      </c>
-      <c r="B87" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C87">
-        <v>25</v>
-      </c>
-      <c r="D87" s="4">
-        <v>10.5</v>
-      </c>
-      <c r="E87" s="5">
-        <v>62.12</v>
-      </c>
-      <c r="F87" s="5">
-        <v>-0.45</v>
-      </c>
-      <c r="G87" s="6">
-        <v>-1.68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20">
-      <c r="A88" s="15">
-        <v>25</v>
-      </c>
-      <c r="B88" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C88">
-        <v>25</v>
-      </c>
-      <c r="D88" s="4">
-        <v>11</v>
-      </c>
-      <c r="E88" s="5">
-        <v>65.48</v>
-      </c>
-      <c r="F88" s="5">
-        <v>-0.39</v>
-      </c>
-      <c r="G88" s="6">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="15">
-        <v>25</v>
-      </c>
-      <c r="B89" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C89">
-        <v>25</v>
-      </c>
-      <c r="D89" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="E89" s="5">
-        <v>66.739999999999995</v>
-      </c>
-      <c r="F89" s="5">
-        <v>-0.33</v>
-      </c>
-      <c r="G89" s="6">
-        <v>-1.62</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20">
-      <c r="A90" s="15">
-        <v>25</v>
-      </c>
-      <c r="B90" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C90">
-        <v>25</v>
-      </c>
-      <c r="D90" s="4">
-        <v>12</v>
-      </c>
-      <c r="E90" s="5">
-        <v>66.83</v>
-      </c>
-      <c r="F90" s="5">
-        <v>-0.26</v>
-      </c>
-      <c r="G90" s="6">
-        <v>-1.91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20">
-      <c r="A91" s="15">
-        <v>25</v>
-      </c>
-      <c r="B91" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C91">
-        <v>25</v>
-      </c>
-      <c r="D91" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="E91" s="5">
-        <v>66.819999999999993</v>
-      </c>
-      <c r="F91" s="5">
-        <v>-0.22</v>
-      </c>
-      <c r="G91" s="6">
-        <v>-2.04</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20">
-      <c r="A92" s="15">
-        <v>25</v>
-      </c>
-      <c r="B92" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C92">
-        <v>25</v>
-      </c>
-      <c r="D92" s="4">
-        <v>13</v>
-      </c>
-      <c r="E92" s="5">
-        <v>68.78</v>
-      </c>
-      <c r="F92" s="5">
-        <v>-0.05</v>
-      </c>
-      <c r="G92" s="6">
-        <v>-2.39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20">
-      <c r="A93" s="15">
-        <v>25</v>
-      </c>
-      <c r="B93" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C93">
-        <v>25</v>
-      </c>
-      <c r="D93" s="4">
-        <v>13.5</v>
-      </c>
-      <c r="E93" s="5">
-        <v>69.28</v>
-      </c>
-      <c r="F93" s="5">
-        <v>-0.13</v>
-      </c>
-      <c r="G93" s="6">
-        <v>-2.0099999999999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
-      <c r="A94" s="15">
-        <v>25</v>
-      </c>
-      <c r="B94" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C94">
-        <v>25</v>
-      </c>
-      <c r="D94" s="4">
-        <v>14</v>
-      </c>
-      <c r="E94" s="5">
-        <v>69.42</v>
-      </c>
-      <c r="F94" s="5">
-        <v>-0.12</v>
-      </c>
-      <c r="G94" s="6">
-        <v>-2.02</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20">
-      <c r="A95" s="15">
-        <v>25</v>
-      </c>
-      <c r="B95" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C95">
-        <v>25</v>
-      </c>
-      <c r="D95" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="E95" s="5">
-        <v>70.489999999999995</v>
-      </c>
-      <c r="F95" s="5">
-        <v>0</v>
-      </c>
-      <c r="G95" s="6">
-        <v>-2.0299999999999998</v>
-      </c>
-      <c r="N95" s="15">
-        <v>25</v>
-      </c>
-      <c r="O95" s="15">
-        <v>2000</v>
-      </c>
-      <c r="P95" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q95" s="15">
-        <v>2</v>
-      </c>
-      <c r="R95" s="5">
-        <v>80.72</v>
-      </c>
-      <c r="S95" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="T95" s="6">
-        <v>-3.97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
-      <c r="A96" s="15">
-        <v>25</v>
-      </c>
-      <c r="B96" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C96">
-        <v>25</v>
-      </c>
-      <c r="D96" s="4">
-        <v>15</v>
-      </c>
-      <c r="E96" s="5">
-        <v>71.03</v>
-      </c>
-      <c r="F96" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="G96" s="6">
-        <v>-2.2200000000000002</v>
-      </c>
-      <c r="N96" s="15">
-        <v>25</v>
-      </c>
-      <c r="O96" s="15">
-        <v>2000</v>
-      </c>
-      <c r="P96" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q96" s="15">
-        <v>2</v>
-      </c>
-      <c r="R96" s="5">
-        <v>65.77</v>
-      </c>
-      <c r="S96" s="5">
-        <v>-0.22</v>
-      </c>
-      <c r="T96" s="6">
-        <v>-2.65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20">
-      <c r="A97" s="15">
-        <v>25</v>
-      </c>
-      <c r="B97" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C97">
-        <v>25</v>
-      </c>
-      <c r="D97" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="E97" s="5">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="F97" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="G97" s="6">
-        <v>-2.0499999999999998</v>
-      </c>
-      <c r="N97" s="15">
-        <v>25</v>
-      </c>
-      <c r="O97" s="15">
-        <v>2000</v>
-      </c>
-      <c r="P97" s="4">
-        <v>20</v>
-      </c>
-      <c r="Q97" s="15">
-        <v>2</v>
-      </c>
-      <c r="R97" s="5">
-        <v>72.36</v>
-      </c>
-      <c r="S97" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="T97" s="6">
-        <v>-2.14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20">
-      <c r="A98" s="15">
-        <v>25</v>
-      </c>
-      <c r="B98" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C98">
-        <v>25</v>
-      </c>
-      <c r="D98" s="10">
-        <v>16</v>
-      </c>
-      <c r="E98" s="13">
+    <row r="110" spans="1:7">
+      <c r="A110" s="15">
+        <v>25</v>
+      </c>
+      <c r="B110" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C110" s="4">
+        <v>135</v>
+      </c>
+      <c r="D110" s="15">
+        <v>2</v>
+      </c>
+      <c r="E110" s="5">
         <v>73.16</v>
       </c>
-      <c r="F98" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="G98" s="14">
-        <v>-2.21</v>
-      </c>
-      <c r="N98" s="15">
-        <v>25</v>
-      </c>
-      <c r="O98" s="15">
-        <v>2000</v>
-      </c>
-      <c r="P98" s="4">
-        <v>25</v>
-      </c>
-      <c r="Q98" s="15">
-        <v>2</v>
-      </c>
-      <c r="R98" s="5">
-        <v>58.45</v>
-      </c>
-      <c r="S98" s="5">
-        <v>-0.66</v>
-      </c>
-      <c r="T98" s="6">
-        <v>-2.06</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20">
-      <c r="A99" s="15">
-        <v>25</v>
-      </c>
-      <c r="B99" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C99" s="4">
-        <v>30</v>
-      </c>
-      <c r="D99" s="15">
-        <v>2</v>
-      </c>
-      <c r="E99" s="5">
-        <v>67.14</v>
-      </c>
-      <c r="F99" s="5">
-        <v>-0.27</v>
-      </c>
-      <c r="G99" s="6">
-        <v>-1.38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20">
-      <c r="A100" s="15">
-        <v>25</v>
-      </c>
-      <c r="B100" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C100" s="4">
-        <v>35</v>
-      </c>
-      <c r="D100" s="15">
-        <v>2</v>
-      </c>
-      <c r="E100" s="5">
-        <v>60.34</v>
-      </c>
-      <c r="F100" s="5">
-        <v>-0.6</v>
-      </c>
-      <c r="G100" s="6">
-        <v>-1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20">
-      <c r="A101" s="15">
-        <v>25</v>
-      </c>
-      <c r="B101" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C101" s="4">
-        <v>40</v>
-      </c>
-      <c r="D101" s="15">
-        <v>2</v>
-      </c>
-      <c r="E101" s="5">
-        <v>63.67</v>
-      </c>
-      <c r="F101" s="5">
-        <v>-0.15</v>
-      </c>
-      <c r="G101" s="6">
-        <v>-0.41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20">
-      <c r="A102" s="15">
-        <v>25</v>
-      </c>
-      <c r="B102" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C102" s="4">
-        <v>45</v>
-      </c>
-      <c r="D102" s="15">
-        <v>2</v>
-      </c>
-      <c r="E102" s="5">
-        <v>64.48</v>
-      </c>
-      <c r="F102" s="5">
-        <v>-0.15</v>
-      </c>
-      <c r="G102" s="6">
-        <v>-0.91</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20">
-      <c r="A103" s="15">
-        <v>25</v>
-      </c>
-      <c r="B103" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C103" s="4">
-        <v>50</v>
-      </c>
-      <c r="D103" s="15">
-        <v>2</v>
-      </c>
-      <c r="E103" s="5">
-        <v>63.97</v>
-      </c>
-      <c r="F103" s="5">
-        <v>-0.59</v>
-      </c>
-      <c r="G103" s="6">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20">
-      <c r="A104" s="15">
-        <v>25</v>
-      </c>
-      <c r="B104" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C104" s="4">
-        <v>55</v>
-      </c>
-      <c r="D104" s="15">
-        <v>2</v>
-      </c>
-      <c r="E104" s="5">
-        <v>67.34</v>
-      </c>
-      <c r="F104" s="5">
-        <v>-0.56000000000000005</v>
-      </c>
-      <c r="G104" s="6">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20">
-      <c r="A105" s="15">
-        <v>25</v>
-      </c>
-      <c r="B105" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C105" s="4">
-        <v>60</v>
-      </c>
-      <c r="D105" s="15">
-        <v>2</v>
-      </c>
-      <c r="E105" s="5">
-        <v>68.989999999999995</v>
-      </c>
-      <c r="F105" s="5">
-        <v>-0.4</v>
-      </c>
-      <c r="G105" s="6">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20">
-      <c r="A106" s="15">
-        <v>25</v>
-      </c>
-      <c r="B106" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C106" s="4">
-        <v>65</v>
-      </c>
-      <c r="D106" s="15">
-        <v>2</v>
-      </c>
-      <c r="E106" s="5">
-        <v>69.77</v>
-      </c>
-      <c r="F106" s="5">
-        <v>-0.4</v>
-      </c>
-      <c r="G106" s="6">
-        <v>-0.52</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20">
-      <c r="A107" s="15">
-        <v>25</v>
-      </c>
-      <c r="B107" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C107" s="4">
-        <v>70</v>
-      </c>
-      <c r="D107" s="15">
-        <v>2</v>
-      </c>
-      <c r="E107" s="5">
-        <v>70.78</v>
-      </c>
-      <c r="F107" s="5">
-        <v>-0.59</v>
-      </c>
-      <c r="G107" s="6">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20">
-      <c r="A108" s="15">
-        <v>25</v>
-      </c>
-      <c r="B108" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C108" s="4">
-        <v>75</v>
-      </c>
-      <c r="D108" s="15">
-        <v>2</v>
-      </c>
-      <c r="E108" s="5">
-        <v>71.23</v>
-      </c>
-      <c r="F108" s="5">
-        <v>-0.59</v>
-      </c>
-      <c r="G108" s="6">
-        <v>-0.42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20">
-      <c r="A109" s="15">
-        <v>25</v>
-      </c>
-      <c r="B109" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C109" s="4">
-        <v>80</v>
-      </c>
-      <c r="D109" s="15">
-        <v>2</v>
-      </c>
-      <c r="E109" s="5">
-        <v>72.06</v>
-      </c>
-      <c r="F109" s="5">
-        <v>-0.6</v>
-      </c>
-      <c r="G109" s="6">
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20">
-      <c r="A110" s="15">
-        <v>25</v>
-      </c>
-      <c r="B110" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C110" s="4">
-        <v>85</v>
-      </c>
-      <c r="D110" s="15">
-        <v>2</v>
-      </c>
-      <c r="E110" s="5">
-        <v>72.069999999999993</v>
-      </c>
       <c r="F110" s="5">
-        <v>-0.6</v>
+        <v>-0.62</v>
       </c>
       <c r="G110" s="6">
-        <v>-0.68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20">
+        <v>-2.95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="15">
         <v>25</v>
       </c>
@@ -5581,22 +5438,22 @@
         <v>2000</v>
       </c>
       <c r="C111" s="4">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D111" s="15">
         <v>2</v>
       </c>
       <c r="E111" s="5">
-        <v>72.7</v>
+        <v>73.209999999999994</v>
       </c>
       <c r="F111" s="5">
-        <v>-0.63</v>
+        <v>-0.5</v>
       </c>
       <c r="G111" s="6">
-        <v>-0.89</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20">
+        <v>-3.63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="15">
         <v>25</v>
       </c>
@@ -5604,19 +5461,19 @@
         <v>2000</v>
       </c>
       <c r="C112" s="4">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D112" s="15">
         <v>2</v>
       </c>
       <c r="E112" s="5">
-        <v>72.89</v>
-      </c>
-      <c r="F112" s="5">
-        <v>-0.62</v>
+        <v>73.25</v>
+      </c>
+      <c r="F112" s="8">
+        <v>-0.34</v>
       </c>
       <c r="G112" s="6">
-        <v>-0.96</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5626,249 +5483,19 @@
       <c r="B113" s="15">
         <v>2000</v>
       </c>
-      <c r="C113" s="4">
-        <v>100</v>
+      <c r="C113" s="10">
+        <v>150</v>
       </c>
       <c r="D113" s="15">
         <v>2</v>
       </c>
-      <c r="E113" s="5">
-        <v>72.83</v>
-      </c>
-      <c r="F113" s="5">
-        <v>-0.6</v>
-      </c>
-      <c r="G113" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="15">
-        <v>25</v>
-      </c>
-      <c r="B114" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C114" s="4">
-        <v>105</v>
-      </c>
-      <c r="D114" s="15">
-        <v>2</v>
-      </c>
-      <c r="E114" s="5">
-        <v>72.849999999999994</v>
-      </c>
-      <c r="F114" s="5">
-        <v>-0.67</v>
-      </c>
-      <c r="G114" s="6">
-        <v>-1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="15">
-        <v>25</v>
-      </c>
-      <c r="B115" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C115" s="4">
-        <v>110</v>
-      </c>
-      <c r="D115" s="15">
-        <v>2</v>
-      </c>
-      <c r="E115" s="5">
-        <v>72.47</v>
-      </c>
-      <c r="F115" s="5">
-        <v>-0.65</v>
-      </c>
-      <c r="G115" s="6">
-        <v>-1.88</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="15">
-        <v>25</v>
-      </c>
-      <c r="B116" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C116" s="4">
-        <v>115</v>
-      </c>
-      <c r="D116" s="15">
-        <v>2</v>
-      </c>
-      <c r="E116" s="5">
-        <v>72.75</v>
-      </c>
-      <c r="F116" s="5">
-        <v>-0.74</v>
-      </c>
-      <c r="G116" s="6">
-        <v>-1.61</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="15">
-        <v>25</v>
-      </c>
-      <c r="B117" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C117" s="4">
-        <v>120</v>
-      </c>
-      <c r="D117" s="15">
-        <v>2</v>
-      </c>
-      <c r="E117" s="5">
-        <v>73.150000000000006</v>
-      </c>
-      <c r="F117" s="5">
-        <v>-0.75</v>
-      </c>
-      <c r="G117" s="6">
-        <v>-1.73</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="15">
-        <v>25</v>
-      </c>
-      <c r="B118" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C118" s="4">
-        <v>125</v>
-      </c>
-      <c r="D118" s="15">
-        <v>2</v>
-      </c>
-      <c r="E118" s="5">
-        <v>72.88</v>
-      </c>
-      <c r="F118" s="5">
-        <v>-0.8</v>
-      </c>
-      <c r="G118" s="6">
-        <v>-1.88</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="15">
-        <v>25</v>
-      </c>
-      <c r="B119" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C119" s="4">
-        <v>130</v>
-      </c>
-      <c r="D119" s="15">
-        <v>2</v>
-      </c>
-      <c r="E119" s="5">
-        <v>72.98</v>
-      </c>
-      <c r="F119" s="5">
-        <v>-0.7</v>
-      </c>
-      <c r="G119" s="6">
-        <v>-2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="15">
-        <v>25</v>
-      </c>
-      <c r="B120" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C120" s="4">
-        <v>135</v>
-      </c>
-      <c r="D120" s="15">
-        <v>2</v>
-      </c>
-      <c r="E120" s="5">
-        <v>73.16</v>
-      </c>
-      <c r="F120" s="5">
-        <v>-0.62</v>
-      </c>
-      <c r="G120" s="6">
-        <v>-2.95</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="15">
-        <v>25</v>
-      </c>
-      <c r="B121" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C121" s="4">
-        <v>140</v>
-      </c>
-      <c r="D121" s="15">
-        <v>2</v>
-      </c>
-      <c r="E121" s="5">
-        <v>73.209999999999994</v>
-      </c>
-      <c r="F121" s="5">
-        <v>-0.5</v>
-      </c>
-      <c r="G121" s="6">
-        <v>-3.63</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="15">
-        <v>25</v>
-      </c>
-      <c r="B122" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C122" s="4">
-        <v>145</v>
-      </c>
-      <c r="D122" s="15">
-        <v>2</v>
-      </c>
-      <c r="E122" s="5">
-        <v>73.25</v>
-      </c>
-      <c r="F122" s="8">
-        <v>-0.34</v>
-      </c>
-      <c r="G122" s="6">
-        <v>-4.43</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="15">
-        <v>25</v>
-      </c>
-      <c r="B123" s="15">
-        <v>2000</v>
-      </c>
-      <c r="C123" s="10">
-        <v>150</v>
-      </c>
-      <c r="D123" s="15">
-        <v>2</v>
-      </c>
-      <c r="E123" s="13">
+      <c r="E113" s="13">
         <v>73.290000000000006</v>
       </c>
-      <c r="F123" s="13">
+      <c r="F113" s="13">
         <v>-0.33</v>
       </c>
-      <c r="G123" s="14">
+      <c r="G113" s="14">
         <v>-4.4800000000000004</v>
       </c>
     </row>
@@ -5878,4 +5505,365 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488098D0-A01E-5B4E-BF6E-BB29FD0CA3B4}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="F2" s="8">
+        <v>-0.06</v>
+      </c>
+      <c r="G2" s="9">
+        <v>-1.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8">
+        <v>65.63</v>
+      </c>
+      <c r="F3" s="8">
+        <v>-0.3</v>
+      </c>
+      <c r="G3" s="9">
+        <v>-0.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="15">
+        <v>25</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>63.56</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-0.4</v>
+      </c>
+      <c r="G4" s="6">
+        <v>-1.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="15">
+        <v>25</v>
+      </c>
+      <c r="B5" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5">
+        <v>62.79</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-0.44</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="15">
+        <v>25</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>50</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>63.97</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-0.59</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="15">
+        <v>25</v>
+      </c>
+      <c r="B7" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="4">
+        <v>55</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>67.34</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="15">
+        <v>25</v>
+      </c>
+      <c r="B8" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="4">
+        <v>115</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>72.75</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-0.74</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-1.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="15">
+        <v>25</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="4">
+        <v>120</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-0.75</v>
+      </c>
+      <c r="G9" s="6">
+        <v>-1.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="15">
+        <v>25</v>
+      </c>
+      <c r="B10" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C10" s="4">
+        <v>125</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>72.88</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="G10" s="6">
+        <v>-1.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="15">
+        <v>25</v>
+      </c>
+      <c r="B11" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="4">
+        <v>130</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5">
+        <v>72.98</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-0.7</v>
+      </c>
+      <c r="G11" s="6">
+        <v>-2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="15">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="E12" s="5">
+        <v>62.72</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-0.45</v>
+      </c>
+      <c r="G12" s="6">
+        <v>-1.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="15">
+        <v>25</v>
+      </c>
+      <c r="B13" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>61.88</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-0.53</v>
+      </c>
+      <c r="G13" s="6">
+        <v>-1.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="15">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2200</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>65.53</v>
+      </c>
+      <c r="F14" s="5">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G14" s="6">
+        <v>-1.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="15">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>65.02</v>
+      </c>
+      <c r="F15" s="5">
+        <v>-0.27</v>
+      </c>
+      <c r="G15" s="6">
+        <v>-2.3199999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468E1B8B-6D06-8F4F-BFCF-55C295782407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD24E0E0-37E5-4843-B75A-950640545A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="24260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23040" windowHeight="24260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Train" sheetId="1" r:id="rId1"/>
@@ -2894,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5511,8 +5511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488098D0-A01E-5B4E-BF6E-BB29FD0CA3B4}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
